--- a/Agg/results/study/comb/comb_condens_100-Medium_2024-07-25_14.xlsx
+++ b/Agg/results/study/comb/comb_condens_100-Medium_2024-07-25_14.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\col\columngeneration\Agg\results\study\comb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61182CFF-906F-46ED-B89C-2247D1D307C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-38510" yWindow="2330" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +122,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +174,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -456,31 +474,31 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9.02</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E2">
         <v>7.5</v>
       </c>
       <c r="F2">
-        <v>9.02</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="I2">
         <v>7.06752</v>
       </c>
       <c r="J2">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -491,31 +509,31 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>8.99</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E3">
         <v>7.24</v>
       </c>
       <c r="F3">
-        <v>8.99</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="I3">
         <v>7.06752</v>
       </c>
       <c r="J3">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -526,31 +544,31 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>9.01</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E4">
         <v>7.64</v>
       </c>
       <c r="F4">
-        <v>9.01</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="I4">
         <v>7.06752</v>
       </c>
       <c r="J4">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -561,31 +579,31 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E5">
         <v>7.43</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="I5">
         <v>7.06752</v>
       </c>
       <c r="J5">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -596,31 +614,31 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>9.029999999999999</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E6">
         <v>7.04</v>
       </c>
       <c r="F6">
-        <v>9.029999999999999</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="I6">
         <v>7.06752</v>
       </c>
       <c r="J6">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -631,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>9.0168</v>
+        <v>9.0167999999999999</v>
       </c>
       <c r="E7">
         <v>4.12</v>
@@ -640,22 +658,22 @@
         <v>8.98</v>
       </c>
       <c r="G7">
-        <v>0.0368</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>9.460520000000001</v>
+        <v>9.4605200000000007</v>
       </c>
       <c r="I7">
-        <v>7.25406</v>
+        <v>7.06752</v>
       </c>
       <c r="J7">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K7">
-        <v>0.49052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.49052000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -666,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>9.112399999999999</v>
+        <v>9.1123999999999992</v>
       </c>
       <c r="E8">
         <v>3.9</v>
@@ -678,19 +696,19 @@
         <v>0.2024</v>
       </c>
       <c r="H8">
-        <v>9.70782</v>
+        <v>9.7078199999999999</v>
       </c>
       <c r="I8">
-        <v>7.25406</v>
+        <v>7.06752</v>
       </c>
       <c r="J8">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K8">
-        <v>0.73782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.73782000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
@@ -701,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>9.0756</v>
+        <v>9.0755999999999997</v>
       </c>
       <c r="E9">
         <v>3.63</v>
@@ -710,22 +728,22 @@
         <v>8.92</v>
       </c>
       <c r="G9">
-        <v>0.1556</v>
+        <v>0.15559999999999999</v>
       </c>
       <c r="H9">
-        <v>9.837490000000001</v>
+        <v>9.8374900000000007</v>
       </c>
       <c r="I9">
-        <v>7.25406</v>
+        <v>7.06752</v>
       </c>
       <c r="J9">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K9">
-        <v>0.86749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.86748999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -748,19 +766,19 @@
         <v>0.1212</v>
       </c>
       <c r="H10">
-        <v>9.92198</v>
+        <v>9.9219799999999996</v>
       </c>
       <c r="I10">
-        <v>7.25406</v>
+        <v>7.06752</v>
       </c>
       <c r="J10">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K10">
-        <v>0.95198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.95198000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -771,31 +789,31 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>9.178599999999999</v>
+        <v>9.1785999999999994</v>
       </c>
       <c r="E11">
         <v>3.64</v>
       </c>
       <c r="F11">
-        <v>9.050000000000001</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="G11">
-        <v>0.1286</v>
+        <v>0.12859999999999999</v>
       </c>
       <c r="H11">
-        <v>9.97405</v>
+        <v>9.9740500000000001</v>
       </c>
       <c r="I11">
-        <v>7.25406</v>
+        <v>7.06752</v>
       </c>
       <c r="J11">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K11">
-        <v>1.00405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>1.0040500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -806,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>9.052</v>
+        <v>9.0519999999999996</v>
       </c>
       <c r="E12">
         <v>4.25</v>
@@ -815,22 +833,22 @@
         <v>8.98</v>
       </c>
       <c r="G12">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H12">
         <v>10.15446</v>
       </c>
       <c r="I12">
-        <v>7.55861</v>
+        <v>7.06752</v>
       </c>
       <c r="J12">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K12">
-        <v>1.19446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>1.1944600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -841,31 +859,31 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>9.154</v>
+        <v>9.1539999999999999</v>
       </c>
       <c r="E13">
         <v>3.87</v>
       </c>
       <c r="F13">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G13">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="H13">
         <v>10.84929</v>
       </c>
       <c r="I13">
-        <v>7.55861</v>
+        <v>7.06752</v>
       </c>
       <c r="J13">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K13">
-        <v>1.88929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>1.8892899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100</v>
       </c>
@@ -876,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>9.195220000000001</v>
+        <v>9.1952200000000008</v>
       </c>
       <c r="E14">
         <v>3.63</v>
@@ -891,16 +909,16 @@
         <v>11.09158</v>
       </c>
       <c r="I14">
-        <v>7.55861</v>
+        <v>7.06752</v>
       </c>
       <c r="J14">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K14">
         <v>2.13158</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100</v>
       </c>
@@ -911,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>9.308</v>
+        <v>9.3079999999999998</v>
       </c>
       <c r="E15">
         <v>3.52</v>
@@ -926,16 +944,16 @@
         <v>11.19516</v>
       </c>
       <c r="I15">
-        <v>7.55861</v>
+        <v>7.06752</v>
       </c>
       <c r="J15">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K15">
         <v>2.23516</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100</v>
       </c>
@@ -946,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>9.367599999999999</v>
+        <v>9.3675999999999995</v>
       </c>
       <c r="E16">
         <v>3.62</v>
@@ -961,16 +979,16 @@
         <v>11.30241</v>
       </c>
       <c r="I16">
-        <v>7.55861</v>
+        <v>7.06752</v>
       </c>
       <c r="J16">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K16">
-        <v>2.34241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>2.3424100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100</v>
       </c>
@@ -981,31 +999,31 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>9.133599999999999</v>
+        <v>9.1335999999999995</v>
       </c>
       <c r="E17">
         <v>4.08</v>
       </c>
       <c r="F17">
-        <v>9.039999999999999</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="G17">
-        <v>0.0936</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="H17">
-        <v>10.34644</v>
+        <v>10.346439999999999</v>
       </c>
       <c r="I17">
-        <v>6.45653</v>
+        <v>7.06752</v>
       </c>
       <c r="J17">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K17">
-        <v>1.38644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>1.3864399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>9.274800000000001</v>
+        <v>9.2748000000000008</v>
       </c>
       <c r="E18">
         <v>3.85</v>
@@ -1025,22 +1043,22 @@
         <v>9.09</v>
       </c>
       <c r="G18">
-        <v>0.1848</v>
+        <v>0.18479999999999999</v>
       </c>
       <c r="H18">
         <v>11.18322</v>
       </c>
       <c r="I18">
-        <v>6.45653</v>
+        <v>7.06752</v>
       </c>
       <c r="J18">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K18">
         <v>2.22322</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100</v>
       </c>
@@ -1051,31 +1069,31 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>9.3406</v>
+        <v>9.3406000000000002</v>
       </c>
       <c r="E19">
         <v>3.47</v>
       </c>
       <c r="F19">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="G19">
-        <v>0.2206</v>
+        <v>0.22059999999999999</v>
       </c>
       <c r="H19">
-        <v>11.37381</v>
+        <v>11.373810000000001</v>
       </c>
       <c r="I19">
-        <v>6.45653</v>
+        <v>7.06752</v>
       </c>
       <c r="J19">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K19">
-        <v>2.41381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>2.4138099999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -1092,25 +1110,25 @@
         <v>3.46</v>
       </c>
       <c r="F20">
-        <v>9.130000000000001</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="G20">
-        <v>0.2816</v>
+        <v>0.28160000000000002</v>
       </c>
       <c r="H20">
-        <v>11.56716</v>
+        <v>11.567159999999999</v>
       </c>
       <c r="I20">
-        <v>6.45653</v>
+        <v>7.06752</v>
       </c>
       <c r="J20">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K20">
-        <v>2.60716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>2.6071599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -1121,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>9.451000000000001</v>
+        <v>9.4510000000000005</v>
       </c>
       <c r="E21">
         <v>3.38</v>
@@ -1130,22 +1148,22 @@
         <v>9.15</v>
       </c>
       <c r="G21">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="H21">
         <v>11.70396</v>
       </c>
       <c r="I21">
-        <v>6.45653</v>
+        <v>7.06752</v>
       </c>
       <c r="J21">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K21">
         <v>2.74396</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -1156,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>9.138400000000001</v>
+        <v>9.1384000000000007</v>
       </c>
       <c r="E22">
         <v>4.2</v>
@@ -1171,16 +1189,16 @@
         <v>10.41633</v>
       </c>
       <c r="I22">
-        <v>6.76911</v>
+        <v>7.06752</v>
       </c>
       <c r="J22">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K22">
-        <v>1.45633</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>1.4563299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>9.2776</v>
+        <v>9.2775999999999996</v>
       </c>
       <c r="E23">
         <v>3.8</v>
@@ -1200,22 +1218,22 @@
         <v>9.06</v>
       </c>
       <c r="G23">
-        <v>0.2176</v>
+        <v>0.21759999999999999</v>
       </c>
       <c r="H23">
-        <v>11.37522</v>
+        <v>11.375220000000001</v>
       </c>
       <c r="I23">
-        <v>6.76911</v>
+        <v>7.06752</v>
       </c>
       <c r="J23">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K23">
-        <v>2.41522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>2.4152200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>100</v>
       </c>
@@ -1226,31 +1244,31 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>9.3804</v>
+        <v>9.3803999999999998</v>
       </c>
       <c r="E24">
         <v>3.34</v>
       </c>
       <c r="F24">
-        <v>9.130000000000001</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="G24">
-        <v>0.2504</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="H24">
         <v>11.98415</v>
       </c>
       <c r="I24">
-        <v>6.76911</v>
+        <v>7.06752</v>
       </c>
       <c r="J24">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K24">
-        <v>3.02415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>3.0241500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>100</v>
       </c>
@@ -1261,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>9.524800000000001</v>
+        <v>9.5248000000000008</v>
       </c>
       <c r="E25">
         <v>3.37</v>
@@ -1270,22 +1288,22 @@
         <v>9.19</v>
       </c>
       <c r="G25">
-        <v>0.3348</v>
+        <v>0.33479999999999999</v>
       </c>
       <c r="H25">
         <v>12.30209</v>
       </c>
       <c r="I25">
-        <v>6.76911</v>
+        <v>7.06752</v>
       </c>
       <c r="J25">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K25">
-        <v>3.34209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>3.3420899999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>100</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>9.610799999999999</v>
+        <v>9.6107999999999993</v>
       </c>
       <c r="E26">
         <v>3.2</v>
@@ -1305,22 +1323,22 @@
         <v>9.27</v>
       </c>
       <c r="G26">
-        <v>0.3408</v>
+        <v>0.34079999999999999</v>
       </c>
       <c r="H26">
         <v>12.45834</v>
       </c>
       <c r="I26">
-        <v>6.76911</v>
+        <v>7.06752</v>
       </c>
       <c r="J26">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K26">
-        <v>3.49834</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>3.4983399999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
@@ -1331,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>9.206</v>
+        <v>9.2059999999999995</v>
       </c>
       <c r="E27">
         <v>4.13</v>
@@ -1340,22 +1358,22 @@
         <v>9.07</v>
       </c>
       <c r="G27">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="H27">
-        <v>10.24815</v>
+        <v>10.248150000000001</v>
       </c>
       <c r="I27">
-        <v>6.05257</v>
+        <v>7.06752</v>
       </c>
       <c r="J27">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K27">
-        <v>1.28815</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>1.2881499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -1366,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>9.339</v>
+        <v>9.3390000000000004</v>
       </c>
       <c r="E28">
         <v>3.62</v>
@@ -1375,22 +1393,22 @@
         <v>9.1</v>
       </c>
       <c r="G28">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="H28">
-        <v>11.1939</v>
+        <v>11.193899999999999</v>
       </c>
       <c r="I28">
-        <v>6.05257</v>
+        <v>7.06752</v>
       </c>
       <c r="J28">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K28">
-        <v>2.2339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>2.2339000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>100</v>
       </c>
@@ -1401,31 +1419,31 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>9.455</v>
+        <v>9.4550000000000001</v>
       </c>
       <c r="E29">
         <v>3.2</v>
       </c>
       <c r="F29">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="G29">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="H29">
         <v>11.47893</v>
       </c>
       <c r="I29">
-        <v>6.05257</v>
+        <v>7.06752</v>
       </c>
       <c r="J29">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K29">
-        <v>2.51893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>2.5189300000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1436,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>9.566000000000001</v>
+        <v>9.5660000000000007</v>
       </c>
       <c r="E30">
         <v>2.91</v>
@@ -1445,22 +1463,22 @@
         <v>9.27</v>
       </c>
       <c r="G30">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="H30">
-        <v>11.75528</v>
+        <v>11.755280000000001</v>
       </c>
       <c r="I30">
-        <v>6.05257</v>
+        <v>7.06752</v>
       </c>
       <c r="J30">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K30">
         <v>2.79528</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>100</v>
       </c>
@@ -1471,25 +1489,25 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>9.641999999999999</v>
+        <v>9.6419999999999995</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>9.289999999999999</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="G31">
-        <v>0.352</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="H31">
-        <v>12.02324</v>
+        <v>12.023239999999999</v>
       </c>
       <c r="I31">
-        <v>6.05257</v>
+        <v>7.06752</v>
       </c>
       <c r="J31">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K31">
         <v>3.06324</v>
